--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -540,10 +540,10 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>5.769809330332444</v>
+        <v>0.7601753767146666</v>
       </c>
       <c r="R2">
-        <v>51.928283972992</v>
+        <v>6.841578390432</v>
       </c>
       <c r="S2">
-        <v>0.0375423474777544</v>
+        <v>0.004783212547938153</v>
       </c>
       <c r="T2">
-        <v>0.03754234747775439</v>
+        <v>0.004783212547938153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.522864</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
         <v>42.53708577126222</v>
@@ -632,10 +632,10 @@
         <v>382.83377194136</v>
       </c>
       <c r="S3">
-        <v>0.2767755333474349</v>
+        <v>0.2676539238789282</v>
       </c>
       <c r="T3">
-        <v>0.2767755333474349</v>
+        <v>0.2676539238789282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.522864</v>
       </c>
       <c r="I4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>104.4556261444107</v>
+        <v>104.5146731039467</v>
       </c>
       <c r="R4">
-        <v>940.100635299696</v>
+        <v>940.63205793552</v>
       </c>
       <c r="S4">
-        <v>0.6796601392188331</v>
+        <v>0.657632318998536</v>
       </c>
       <c r="T4">
-        <v>0.6796601392188331</v>
+        <v>0.657632318998536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H5">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I5">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J5">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>0.03495618156177778</v>
+        <v>0.05715646047266666</v>
       </c>
       <c r="R5">
-        <v>0.314605634056</v>
+        <v>0.5144081442539999</v>
       </c>
       <c r="S5">
-        <v>0.0002274489570718827</v>
+        <v>0.000359642665762388</v>
       </c>
       <c r="T5">
-        <v>0.0002274489570718827</v>
+        <v>0.000359642665762388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H6">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I6">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J6">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
-        <v>0.2577093987338889</v>
+        <v>3.198300465893889</v>
       </c>
       <c r="R6">
-        <v>2.319384588605</v>
+        <v>28.78470419304499</v>
       </c>
       <c r="S6">
-        <v>0.001676834578343572</v>
+        <v>0.02012450204143127</v>
       </c>
       <c r="T6">
-        <v>0.001676834578343572</v>
+        <v>0.02012450204143126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H7">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I7">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J7">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>0.6328406405836666</v>
+        <v>7.858303445576666</v>
       </c>
       <c r="R7">
-        <v>5.695565765253</v>
+        <v>70.72473101018998</v>
       </c>
       <c r="S7">
-        <v>0.00411769642056227</v>
+        <v>0.04944639986740408</v>
       </c>
       <c r="T7">
-        <v>0.004117696420562269</v>
+        <v>0.04944639986740407</v>
       </c>
     </row>
   </sheetData>
